--- a/biology/Botanique/Haematococcus/Haematococcus.xlsx
+++ b/biology/Botanique/Haematococcus/Haematococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haematococcus est un genre d'algues vertes, de la famille des Haematococcaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des algues unicellulaires, dotées de deux flagelles et n'ayant qu'un seul noyau. Leur couleur rose orangé est due à un caroténoïde, l'astaxanthine.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre vivent en eau douce, sur tous les continents du monde (sauf l'Antarctique).
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (9 juin 2013)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (9 juin 2013) :
 Haematococcus allmanii Hassall
 Haematococcus buetschlii Blochmann
 Haematococcus capensis Pocock
@@ -585,7 +603,7 @@
 Haematococcus pluvialis Flotow (espèce type)
 Haematococcus thermalis Lemmermann
 Haematococcus zimbabwiensis Pockock
-Selon NCBI  (9 juin 2013)[2] :
+Selon NCBI  (9 juin 2013) :
 Haematococcus capensis
 Haematococcus droebakensis
 Haematococcus lacustris
